--- a/bin/Debug/net5.0/win-x64/publish/P3 In Wall Template_P3_In_Wall_BOM.xlsx
+++ b/bin/Debug/net5.0/win-x64/publish/P3 In Wall Template_P3_In_Wall_BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -45,10 +45,13 @@
     <t>Total Labor Hours</t>
   </si>
   <si>
-    <t>F12C-1/4</t>
+    <t>Bundle Name: UNSET</t>
   </si>
   <si>
-    <t>4" Red Life Saftey Square Box - 3-1/2" Deep - 3/4" &amp; 1/2" KO</t>
+    <t>N12C-1/4</t>
+  </si>
+  <si>
+    <t>4" Square Box - 2-1/8" Deep - 3/4" &amp; 1/2" KO</t>
   </si>
   <si>
     <t>E</t>
@@ -60,13 +63,19 @@
     <t>Sub Total: 1</t>
   </si>
   <si>
-    <t>XNRM-A-CT-CT-CB-CB-PT-PT-PB-PB-MT-MT-MB-MB</t>
+    <t>P12C-1/4</t>
   </si>
   <si>
-    <t>4-11/16" Square Box - 2-1/8" Deep - 3/4" &amp; 1/2" KO</t>
+    <t>Ground Stinger #12 Copper</t>
   </si>
   <si>
-    <t>4" Round Plaster Ring - Steel - Adjustable</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F12C-1/4</t>
+  </si>
+  <si>
+    <t>4" Red Life Saftey Square Box - 3-1/2" Deep - 3/4" &amp; 1/2" KO</t>
   </si>
   <si>
     <t>Fixture Item Totals</t>
@@ -76,12 +85,6 @@
   </si>
   <si>
     <t>Conduit - EMT - 1/2"</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Conduit - MC Cable - #12/2C</t>
   </si>
   <si>
     <t>Conduit Clip Snap Close Flange Hanger Side Mount - 1/2"</t>
@@ -96,13 +99,13 @@
     <t>M</t>
   </si>
   <si>
-    <t>Sub Total: 2</t>
+    <t>Sub Total: 6</t>
   </si>
   <si>
-    <t>Code 01 | Empty Raceway | Grand Total: 4</t>
+    <t>Code 01 | Empty Raceway | Grand Total: 9</t>
   </si>
   <si>
-    <t>Code 01 w/ 0.82 Labor Factor: 3</t>
+    <t>Code 01 w/ 0.82 Labor Factor: 7</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +149,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA500" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4500" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -187,6 +195,9 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -201,7 +212,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16652,301 +16663,374 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="6">
         <v>0.023</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="6">
         <v>0.023</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.025</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.025</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="E7" s="6">
         <v>0.025</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
+    <row r="8">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="20" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="C10" s="5">
-        <v>0.023</v>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.023</v>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.025</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.025</v>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.023</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.092</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.025</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.025</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
+      <c r="E13" s="6">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.023</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.023</v>
+    <row r="14">
+      <c r="E14" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="20" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.023</v>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.023</v>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
+      <c r="A17" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
+      <c r="B17" s="6">
+        <v>2</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.025</v>
+      <c r="C17" s="6">
+        <v>0.023</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="E17" s="5">
-        <v>0.025</v>
+      <c r="E17" s="6">
+        <v>0.046</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.025</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.025</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.025</v>
+      <c r="E18" s="6">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
+    <row r="19">
+      <c r="E19" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="20" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="B21" s="5">
-        <v>10</v>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.0278</v>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="5">
-        <v>0.27799999999999997</v>
+      <c r="E21" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>19</v>
+      <c r="A22" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.023</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="5">
-        <v>0.0152</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.152</v>
+      <c r="E22" s="6">
+        <v>0.046</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.082</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="5">
-        <v>0.082</v>
+      <c r="B23" s="6">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.023</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.11499999999999999</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>21</v>
+      <c r="A24" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="B24" s="5">
-        <v>6</v>
+      <c r="B24" s="6">
+        <v>7</v>
       </c>
-      <c r="C24" s="5">
-        <v>0.054</v>
+      <c r="C24" s="6">
+        <v>0.025</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>18</v>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="E24" s="5">
-        <v>0.324</v>
+      <c r="E24" s="6">
+        <v>0.17500000000000002</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
+      <c r="A25" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="B25" s="5">
-        <v>8</v>
+      <c r="B25" s="6">
+        <v>4</v>
       </c>
-      <c r="C25" s="5">
-        <v>0.03</v>
+      <c r="C25" s="6">
+        <v>0.025</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>23</v>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="E25" s="5">
-        <v>0.24</v>
+      <c r="E25" s="6">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="E26" s="5" t="s">
-        <v>24</v>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
-      <c r="E28" s="5" t="s">
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6">
+        <v>90</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.0278</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.502</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="6">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.082</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.5740000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="6">
+        <v>21</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.054</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.134</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="6">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29">
-      <c r="E29" s="5" t="s">
+    <row r="34">
+      <c r="E34" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -16954,15 +17038,17 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.5" header="0.315" footer="0.315"/>
   <pageSetup orientation="portrait" fitToWidth="1" fitToHeight="0"/>
   <headerFooter alignWithMargins="1">
-    <oddFooter>&amp;RCreated 7/26/2021 at 6:10AM</oddFooter>
+    <oddFooter>&amp;RCreated 7/27/2021 at 8:24AM</oddFooter>
   </headerFooter>
 </worksheet>
 </file>